--- a/src/public/data/content.xlsx
+++ b/src/public/data/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565EC0D-86B8-4A81-A91C-288EB61730F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA179F5-A604-4D4F-9282-DA3BF53EE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
   <si>
     <t>image</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>_calendar</t>
+  </si>
+  <si>
+    <t>tempvideo</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>imgs</t>
+  </si>
+  <si>
+    <t>vids</t>
+  </si>
+  <si>
+    <t>Title 34</t>
   </si>
 </sst>
 </file>
@@ -320,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +348,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +385,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,719 +727,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595550E-C25E-4557-B787-A7ED6D828667}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="12" width="14.140625" style="1"/>
-    <col min="13" max="13" width="17.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="14.140625" style="1"/>
+    <col min="1" max="1" width="14.140625" style="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="13" width="14.140625" style="1"/>
+    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/src/public/data/content.xlsx
+++ b/src/public/data/content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo_v2\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA179F5-A604-4D4F-9282-DA3BF53EE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EFFA9B-64D6-4DA5-9D45-BD107F897D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>image</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>Title 34</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>Pashtrik</t>
+  </si>
+  <si>
+    <t>Sharri</t>
   </si>
 </sst>
 </file>
@@ -727,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595550E-C25E-4557-B787-A7ED6D828667}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,25 +1556,71 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
